--- a/public/import_items.xlsx
+++ b/public/import_items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -217,9 +217,6 @@
     <t>Min_Stock</t>
   </si>
   <si>
-    <t>Has_Serial?(Y/N)</t>
-  </si>
-  <si>
     <t>UNIT OF MEASURE</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>UOM</t>
+  </si>
+  <si>
+    <t>Serial_Y_N</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1224,7 @@
     <col min="3" max="3" width="60.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1233,7 +1233,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1242,17 +1242,16 @@
         <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tCSuFTX+xWItTNLPkLCNH1Y3I//UrDzAMi83WUpz3kbCUHTKRewLjMC+cc3hd3Uw5VZBbsbDoMeohnElR7rbvQ==" saltValue="Jh9oFwgDXAlzfqfHKOTSRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quantity" prompt="Required Field" sqref="D2:D1048576">
       <formula1>1</formula1>
@@ -3030,7 +3029,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/public/import_items.xlsx
+++ b/public/import_items.xlsx
@@ -1252,6 +1252,7 @@
       <c r="A2" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zkBMJntNNaXtLhGQz4P1pzh+HQfv7uS1llOYVhYv9LyPrAJJdmWkc4CxnBpeD9rI04qUEIW3DqHVwn5s35znHg==" saltValue="IB8cRSGDAH6VUlSUxE4Akw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Quantity" prompt="Required Field" sqref="D2:D1048576">
       <formula1>1</formula1>
